--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 30/S&P500_returns_compared_annual.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 30/S&P500_returns_compared_annual.xlsx
@@ -501,13 +501,13 @@
         <v>0.04823062108356169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03308812247422883</v>
+        <v>0.0383176576800623</v>
       </c>
       <c r="H2" t="n">
-        <v>-31.39602656805479</v>
+        <v>-20.5532567916236</v>
       </c>
       <c r="I2" t="n">
-        <v>59.69952858565188</v>
+        <v>-52.57941970496287</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.03835660347027155</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04540498282947436</v>
+        <v>0.04350316171216467</v>
       </c>
       <c r="H3" t="n">
-        <v>18.37592154025236</v>
+        <v>13.41765895898991</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.4527679884705402</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4507683147726713</v>
+        <v>-0.4791798042860266</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.4416552735152044</v>
+        <v>-5.833410596165616</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.4788349786360374</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4560203753588746</v>
+        <v>-0.4683252099896513</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.764606658884922</v>
+        <v>2.194862346172618</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2336316508151194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528330123506849</v>
+        <v>0.2487269103236668</v>
       </c>
       <c r="H6" t="n">
-        <v>8.218647374434795</v>
+        <v>6.461136346844026</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2205746116218639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2411678738557434</v>
+        <v>0.242571720986055</v>
       </c>
       <c r="H7" t="n">
-        <v>9.336188821759324</v>
+        <v>9.972638828398464</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1668064381739801</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1680473459186731</v>
+        <v>0.1651096967438662</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7439207732489995</v>
+        <v>-1.017191811472053</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1720113297547816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1728771782727732</v>
+        <v>0.1679767773427478</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5033671440282295</v>
+        <v>-2.345515506324745</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.00473948184538576</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01841886118981018</v>
+        <v>-0.01354062927564988</v>
       </c>
       <c r="H10" t="n">
-        <v>288.6260521863232</v>
+        <v>-185.6985155209044</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0146552956725634</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02044847281425525</v>
+        <v>-0.02635858095305886</v>
       </c>
       <c r="H11" t="n">
-        <v>39.52958214645525</v>
+        <v>-79.85703968024008</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1367222749794492</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1298026139594634</v>
+        <v>0.1433146937789669</v>
       </c>
       <c r="H12" t="n">
-        <v>-5.061107285572803</v>
+        <v>4.821759146787624</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.1246375821478671</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1364790241341289</v>
+        <v>0.1435317737545024</v>
       </c>
       <c r="H13" t="n">
-        <v>9.500699373495062</v>
+        <v>15.15930530826543</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2473334756068372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2571995698847043</v>
+        <v>0.255361814136216</v>
       </c>
       <c r="H14" t="n">
-        <v>3.988984610215215</v>
+        <v>3.245957106971121</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2526770099516101</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2605303001060657</v>
+        <v>0.2527791181297078</v>
       </c>
       <c r="H15" t="n">
-        <v>3.108035098230584</v>
+        <v>0.04041055342443028</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1534692709482307</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1393477682707275</v>
+        <v>0.1390085473030947</v>
       </c>
       <c r="H16" t="n">
-        <v>-9.201518056514885</v>
+        <v>-9.422553163762664</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1510151984036966</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1457945352880112</v>
+        <v>0.1434482756203169</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.457044834473825</v>
+        <v>-5.010702805655138</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.01637490625494815</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01131235259042882</v>
+        <v>-0.01788526529322874</v>
       </c>
       <c r="H18" t="n">
-        <v>-30.91653525032874</v>
+        <v>-9.223619450182753</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.0008420639130941139</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01244018714494799</v>
+        <v>-0.01076107448395934</v>
       </c>
       <c r="H19" t="n">
-        <v>1377.344765819171</v>
+        <v>-1177.940345931511</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1386621728908525</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1414681974938408</v>
+        <v>0.1378603111761096</v>
       </c>
       <c r="H20" t="n">
-        <v>2.023641015056818</v>
+        <v>-0.5782844001543764</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1430944751915809</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1484891840917616</v>
+        <v>0.1389899734116273</v>
       </c>
       <c r="H21" t="n">
-        <v>3.770032975038375</v>
+        <v>-2.868385920880806</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.186217385980056</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1695626448028774</v>
+        <v>0.1763681344037855</v>
       </c>
       <c r="H22" t="n">
-        <v>-8.943709036363737</v>
+        <v>-5.289114936521217</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.179460504226912</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1750037244309882</v>
+        <v>0.1748823191194182</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.483432115117996</v>
+        <v>-2.551082271397773</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0943972626856821</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1028431670546689</v>
+        <v>-0.108462293233846</v>
       </c>
       <c r="H24" t="n">
-        <v>8.947192035757876</v>
+        <v>-14.89982881706721</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.09960845456872909</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1028431670546689</v>
+        <v>-0.09145317539788259</v>
       </c>
       <c r="H25" t="n">
-        <v>3.247427640500009</v>
+        <v>8.187336312119392</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2301404426212312</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2318620974410605</v>
+        <v>0.2397016833863921</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7480887758014925</v>
+        <v>4.154524366191885</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2325722382365865</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2316539516112647</v>
+        <v>0.2511625436831053</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.3948393119851425</v>
+        <v>7.993346750013923</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.05880326267593137</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05514184562795267</v>
+        <v>0.04662143922384045</v>
       </c>
       <c r="H28" t="n">
-        <v>-6.226554244374171</v>
+        <v>-20.71623732721388</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.07058452141033789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06836907212245463</v>
+        <v>0.06771342341845395</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.138718296330017</v>
+        <v>-4.067602832061471</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 30/S&P500_returns_compared_annual.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 30/S&P500_returns_compared_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04823062108356169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0383176576800623</v>
+        <v>0.04281337908013565</v>
       </c>
       <c r="H2" t="n">
-        <v>-20.5532567916236</v>
+        <v>-11.23195571966703</v>
       </c>
       <c r="I2" t="n">
-        <v>-52.57941970496287</v>
+        <v>-68.0994835008954</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.03835660347027155</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04350316171216467</v>
+        <v>0.05765081963801109</v>
       </c>
       <c r="H3" t="n">
-        <v>13.41765895898991</v>
+        <v>50.30220202550939</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.4527679884705402</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4791798042860266</v>
+        <v>-0.4535044621812089</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.833410596165616</v>
+        <v>-0.1626602872602654</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.4788349786360374</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4683252099896513</v>
+        <v>-0.4868696565836673</v>
       </c>
       <c r="H5" t="n">
-        <v>2.194862346172618</v>
+        <v>-1.677963871920282</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2336316508151194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2487269103236668</v>
+        <v>0.232143033415955</v>
       </c>
       <c r="H6" t="n">
-        <v>6.461136346844026</v>
+        <v>-0.6371642686129091</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2205746116218639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.242571720986055</v>
+        <v>0.2299493561456461</v>
       </c>
       <c r="H7" t="n">
-        <v>9.972638828398464</v>
+        <v>4.250146675925488</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1668064381739801</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1651096967438662</v>
+        <v>0.1641386126071218</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.017191811472053</v>
+        <v>-1.599354075335968</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1720113297547816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1679767773427478</v>
+        <v>0.1736065283855741</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.345515506324745</v>
+        <v>0.9273799772762804</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.00473948184538576</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01354062927564988</v>
+        <v>-0.01233644169476444</v>
       </c>
       <c r="H10" t="n">
-        <v>-185.6985155209044</v>
+        <v>-160.2909367988167</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0146552956725634</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02635858095305886</v>
+        <v>-0.03227087510197125</v>
       </c>
       <c r="H11" t="n">
-        <v>-79.85703968024008</v>
+        <v>-120.1994133928426</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1367222749794492</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1433146937789669</v>
+        <v>0.1316122180289581</v>
       </c>
       <c r="H12" t="n">
-        <v>4.821759146787624</v>
+        <v>-3.73754529118185</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.1246375821478671</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1435317737545024</v>
+        <v>0.1330185301764849</v>
       </c>
       <c r="H13" t="n">
-        <v>15.15930530826543</v>
+        <v>6.72425434141914</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2473334756068372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.255361814136216</v>
+        <v>0.2560563878134899</v>
       </c>
       <c r="H14" t="n">
-        <v>3.245957106971121</v>
+        <v>3.526781882335527</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2526770099516101</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2527791181297078</v>
+        <v>0.2574673972360753</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04041055342443028</v>
+        <v>1.895854033329996</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1534692709482307</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1390085473030947</v>
+        <v>0.1328170162102214</v>
       </c>
       <c r="H16" t="n">
-        <v>-9.422553163762664</v>
+        <v>-13.45693154753818</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1510151984036966</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1434482756203169</v>
+        <v>0.1410961765994528</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.010702805655138</v>
+        <v>-6.568227508947857</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.01637490625494815</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01788526529322874</v>
+        <v>-0.02627778221040918</v>
       </c>
       <c r="H18" t="n">
-        <v>-9.223619450182753</v>
+        <v>-60.47592457189541</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.0008420639130941139</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01076107448395934</v>
+        <v>-0.01420724301156604</v>
       </c>
       <c r="H19" t="n">
-        <v>-1177.940345931511</v>
+        <v>-1587.192954197784</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1386621728908525</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1378603111761096</v>
+        <v>0.1370448739116555</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.5782844001543764</v>
+        <v>-1.16635917747376</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1430944751915809</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1389899734116273</v>
+        <v>0.1426524975884551</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.868385920880806</v>
+        <v>-0.3088711863501672</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.186217385980056</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1763681344037855</v>
+        <v>0.1730249879388232</v>
       </c>
       <c r="H22" t="n">
-        <v>-5.289114936521217</v>
+        <v>-7.084407275830682</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.179460504226912</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1748823191194182</v>
+        <v>0.1773148304219258</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.551082271397773</v>
+        <v>-1.195624527095493</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0943972626856821</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.108462293233846</v>
+        <v>-0.1091503220107316</v>
       </c>
       <c r="H24" t="n">
-        <v>-14.89982881706721</v>
+        <v>-15.62869399526264</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.09960845456872909</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.09145317539788259</v>
+        <v>-0.1032928758646516</v>
       </c>
       <c r="H25" t="n">
-        <v>8.187336312119392</v>
+        <v>-3.698904186270948</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2301404426212312</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2397016833863921</v>
+        <v>0.2322117338454718</v>
       </c>
       <c r="H26" t="n">
-        <v>4.154524366191885</v>
+        <v>0.9000118365330361</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2325722382365865</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2511625436831053</v>
+        <v>0.2304701074549608</v>
       </c>
       <c r="H27" t="n">
-        <v>7.993346750013923</v>
+        <v>-0.9038614400259046</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.05880326267593137</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04662143922384045</v>
+        <v>0.07395570645338267</v>
       </c>
       <c r="H28" t="n">
-        <v>-20.71623732721388</v>
+        <v>25.76803239806168</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,14 +1394,14 @@
         <v>0.07058452141033789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06771342341845395</v>
+        <v>0.06785823106279887</v>
       </c>
       <c r="H29" t="n">
-        <v>-4.067602832061471</v>
+        <v>-3.86244787534923</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>